--- a/빅데이터 분석과정_20201228 ~/2020_12_30_GitHub 특강2/2020_12_30 github특강2 메모.xlsx
+++ b/빅데이터 분석과정_20201228 ~/2020_12_30_GitHub 특강2/2020_12_30 github특강2 메모.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangyong\TIL\빅데이터 분석과정_20201228 ~\2020_12_30_GitHub 특강2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CF8E74-8BF3-4009-A314-EB20CFF57895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3312AE1E-BED7-4CF4-B0C3-3209F6A0AED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="75" windowWidth="13050" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="420" windowWidth="13050" windowHeight="15510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="명단" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="255">
   <si>
     <t>이름</t>
   </si>
@@ -448,9 +448,6 @@
     <t>예시)강동주</t>
   </si>
   <si>
-    <t>asdf@gmail.com</t>
-  </si>
-  <si>
     <t>https://github.com/asdfqwer</t>
   </si>
   <si>
@@ -794,6 +791,30 @@
   </si>
   <si>
     <t>http://bit.do/kd_bigdata_00</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>john@hphk.kr</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.fastcampus.co.kr/data_red_hyh</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Data 분석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 전문가 강연</t>
+    </r>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -801,7 +822,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -966,6 +987,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1084,7 +1112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1180,6 +1208,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1201,7 +1230,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1523,8 +1553,8 @@
   </sheetPr>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1538,13 +1568,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="43"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="45"/>
+      <c r="A1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -2208,15 +2238,15 @@
       <c r="B31" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>24</v>
@@ -2284,6 +2314,7 @@
     <hyperlink ref="D26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="D27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="D31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C31" r:id="rId27" xr:uid="{ABAC6A24-258E-4B32-B8C4-5E966A09580F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -2296,10 +2327,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2308,53 +2339,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25">
-      <c r="A1" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="A1" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>141</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>142</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>143</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>145</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
@@ -2363,7 +2394,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="23"/>
@@ -2371,88 +2402,88 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>152</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A13" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="54" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A13" s="48" t="s">
+      <c r="B13" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="12" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A14" s="48"/>
+      <c r="B14" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A14" s="47"/>
-      <c r="B14" s="6" t="s">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A15" s="48"/>
+      <c r="B15" s="6" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A15" s="47"/>
-      <c r="B15" s="6" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -2460,57 +2491,65 @@
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="26" t="s">
         <v>170</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>172</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="26" t="s">
         <v>174</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="B27" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="B28" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1">
       <c r="B29" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1">
       <c r="A30" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="B30" s="26" t="s">
-        <v>182</v>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A31" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2538,6 +2577,7 @@
     <hyperlink ref="B28" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
     <hyperlink ref="B29" r:id="rId17" location="fun-readmes" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
     <hyperlink ref="B30" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="B31" r:id="rId19" xr:uid="{72B9A63F-E411-43A1-B072-C3B6B16DD051}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2560,17 +2600,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="47"/>
+      <c r="A1" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
@@ -2578,7 +2618,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
@@ -2586,7 +2626,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
@@ -2594,7 +2634,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
@@ -2602,7 +2642,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
@@ -2610,7 +2650,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
@@ -2618,7 +2658,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
@@ -2626,7 +2666,7 @@
         <v>41</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
@@ -2634,7 +2674,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
@@ -2642,7 +2682,7 @@
         <v>51</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
@@ -2650,7 +2690,7 @@
         <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
@@ -2658,7 +2698,7 @@
         <v>61</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
@@ -2666,7 +2706,7 @@
         <v>66</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
@@ -2674,7 +2714,7 @@
         <v>71</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
@@ -2682,7 +2722,7 @@
         <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E16" s="29"/>
     </row>
@@ -2691,7 +2731,7 @@
         <v>81</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
@@ -2699,7 +2739,7 @@
         <v>86</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
@@ -2707,7 +2747,7 @@
         <v>91</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1">
@@ -2715,7 +2755,7 @@
         <v>97</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1">
@@ -2723,7 +2763,7 @@
         <v>101</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1">
@@ -2731,7 +2771,7 @@
         <v>106</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1">
@@ -2739,7 +2779,7 @@
         <v>111</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1">
@@ -2753,7 +2793,7 @@
         <v>122</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
@@ -2840,17 +2880,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="B1" s="47"/>
+      <c r="A1" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
@@ -2858,7 +2898,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
@@ -2866,7 +2906,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
@@ -2874,7 +2914,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
@@ -2882,7 +2922,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
@@ -2890,7 +2930,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
@@ -2898,7 +2938,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
@@ -2906,7 +2946,7 @@
         <v>41</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
@@ -2914,7 +2954,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
@@ -2922,7 +2962,7 @@
         <v>51</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
@@ -2930,7 +2970,7 @@
         <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
@@ -2938,7 +2978,7 @@
         <v>61</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
@@ -2946,7 +2986,7 @@
         <v>66</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
@@ -2954,7 +2994,7 @@
         <v>71</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
@@ -2962,7 +3002,7 @@
         <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E16" s="29"/>
     </row>
@@ -2971,7 +3011,7 @@
         <v>81</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
@@ -2979,7 +3019,7 @@
         <v>86</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
@@ -2987,7 +3027,7 @@
         <v>91</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1">
@@ -2995,7 +3035,7 @@
         <v>97</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1">
@@ -3003,7 +3043,7 @@
         <v>101</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1">
@@ -3011,7 +3051,7 @@
         <v>106</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1">
@@ -3019,7 +3059,7 @@
         <v>111</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1">
@@ -3033,7 +3073,7 @@
         <v>122</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
@@ -3041,7 +3081,7 @@
         <v>127</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
@@ -3049,7 +3089,7 @@
         <v>132</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
@@ -3128,17 +3168,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="B1" s="47"/>
+      <c r="A1" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
@@ -3289,7 +3329,7 @@
         <v>111</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1">
@@ -3383,30 +3423,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="B1" s="47"/>
+      <c r="A1" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>236</v>
-      </c>
-      <c r="C3" s="52">
+      <c r="B3" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="53">
         <v>0.63541666666666663</v>
       </c>
     </row>
@@ -3414,17 +3454,17 @@
       <c r="A4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>237</v>
-      </c>
-      <c r="C5" s="52">
+      <c r="B5" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="53">
         <v>0.12708333333333333</v>
       </c>
     </row>
@@ -3432,17 +3472,17 @@
       <c r="A6" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" s="52">
+      <c r="B7" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="53">
         <v>0.12013888888888889</v>
       </c>
     </row>
@@ -3450,17 +3490,17 @@
       <c r="A8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="C9" s="52">
+      <c r="B9" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="53">
         <v>0.12013888888888889</v>
       </c>
     </row>
@@ -3468,29 +3508,29 @@
       <c r="A10" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="53">
+        <v>0.11805555555555555</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="C11" s="52">
-        <v>0.11805555555555555</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
       <c r="E12" s="35"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
@@ -3498,7 +3538,7 @@
         <v>86</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="37"/>
     </row>
@@ -3506,10 +3546,10 @@
       <c r="A14" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="C14" s="52">
+      <c r="B14" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" s="53">
         <v>0.12430555555555556</v>
       </c>
     </row>
@@ -3517,18 +3557,18 @@
       <c r="A15" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
       <c r="E15" s="29"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" s="52">
+      <c r="B16" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" s="53">
         <v>0.12777777777777777</v>
       </c>
     </row>
@@ -3536,17 +3576,17 @@
       <c r="A17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="50" t="s">
-        <v>245</v>
-      </c>
-      <c r="C18" s="52">
+      <c r="B18" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" s="53">
         <v>0.13263888888888889</v>
       </c>
     </row>
@@ -3554,17 +3594,17 @@
       <c r="A19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="C20" s="52">
+      <c r="B20" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" s="53">
         <v>0.11874999999999999</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -3575,17 +3615,17 @@
       <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="50" t="s">
-        <v>247</v>
-      </c>
-      <c r="C22" s="52">
+      <c r="B22" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" s="53">
         <v>0.12013888888888889</v>
       </c>
     </row>
@@ -3593,17 +3633,17 @@
       <c r="A23" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="50" t="s">
-        <v>248</v>
-      </c>
-      <c r="C24" s="52">
+      <c r="B24" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" s="53">
         <v>0.11874999999999999</v>
       </c>
     </row>
@@ -3611,17 +3651,17 @@
       <c r="A25" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="C26" s="52">
+      <c r="B26" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="C26" s="53">
         <v>0.12083333333333333</v>
       </c>
     </row>
@@ -3629,8 +3669,8 @@
       <c r="A27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" s="16"/>
@@ -3639,10 +3679,10 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1">
       <c r="A29" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" s="41" t="s">
         <v>250</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>251</v>
       </c>
       <c r="C29" s="40"/>
     </row>
@@ -6570,17 +6610,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C9:C10"/>
@@ -6590,11 +6624,17 @@
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <hyperlinks>
